--- a/biology/Botanique/Viburnum_rhytidophyllum/Viburnum_rhytidophyllum.xlsx
+++ b/biology/Botanique/Viburnum_rhytidophyllum/Viburnum_rhytidophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Viorne à feuilles ridées (Viburnum rhytidophyllum) est un arbuste d'ornement originaire de Chine (Guizhou, Hubei, Shaanxi et Sichuan.)
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La viorne à feuilles ridées est un arbuste haut de 3 à 5 mètres. Ses feuilles persistantes mesurent 15 à 20 cm et sont de texture crevassée d'où le nom donné à l'espèce. 
-Appareil reproducteur
-Les fleurs hermaphrodites se présentent sous forme d'ombelles blanches ou légèrement rosées. Les fruits sont des drupes rouges virant au noir à maturité. Son pollen est allergisant. Les poils de ses feuilles peuvent irriter la peau. Ses fruits sont appréciés des oiseaux, mais non comestibles pour les humains[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La viorne à feuilles ridées est un arbuste haut de 3 à 5 mètres. Ses feuilles persistantes mesurent 15 à 20 cm et sont de texture crevassée d'où le nom donné à l'espèce. 
 </t>
         </is>
       </c>
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs hermaphrodites se présentent sous forme d'ombelles blanches ou légèrement rosées. Les fruits sont des drupes rouges virant au noir à maturité. Son pollen est allergisant. Les poils de ses feuilles peuvent irriter la peau. Ses fruits sont appréciés des oiseaux, mais non comestibles pour les humains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viburnum_rhytidophyllum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viburnum_rhytidophyllum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La viorne à feuilles ridées est utilisée en horticulture pour son feuillage persistant et sa grande rusticité. Elle a été croisée avec Viburnum lantana pour donner Viburnum x rhytidophylloides.
 </t>
